--- a/po_analysis_by_asin/B0BSVYXM5C_po_data.xlsx
+++ b/po_analysis_by_asin/B0BSVYXM5C_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,137 +452,361 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45306</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45320</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45327</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>600</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45348</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45355</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1264</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45418</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45425</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45439</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45453</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>96</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45460</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45467</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45481</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45488</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>400</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45565</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45586</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45593</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45607</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B46" t="n">
         <v>16</v>
       </c>
     </row>
@@ -597,7 +821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,7 +843,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>72</v>
@@ -627,57 +851,129 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>672</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>1264</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>80</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>128</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>416</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45566</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>80</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45597</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B18" t="n">
         <v>16</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BSVYXM5C_po_data.xlsx
+++ b/po_analysis_by_asin/B0BSVYXM5C_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -837,7 +838,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -975,6 +976,789 @@
       </c>
       <c r="B18" t="n">
         <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>77</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-184.3636069839142</v>
+      </c>
+      <c r="D2" t="n">
+        <v>342.6444210233852</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>78</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-173.0471121862446</v>
+      </c>
+      <c r="D3" t="n">
+        <v>356.6460805123269</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>78</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-182.310516282795</v>
+      </c>
+      <c r="D4" t="n">
+        <v>344.4774907833351</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>79</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-182.9682518788344</v>
+      </c>
+      <c r="D5" t="n">
+        <v>347.3745869635646</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>80</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-186.9675077483778</v>
+      </c>
+      <c r="D6" t="n">
+        <v>362.9642351760211</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>81</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-206.4444393148276</v>
+      </c>
+      <c r="D7" t="n">
+        <v>327.7685831817484</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>82</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-167.0089361083433</v>
+      </c>
+      <c r="D8" t="n">
+        <v>339.4482485793996</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>84</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-177.8423623169037</v>
+      </c>
+      <c r="D9" t="n">
+        <v>337.2376318384395</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>85</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-182.1002863593034</v>
+      </c>
+      <c r="D10" t="n">
+        <v>354.4294344016369</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>91</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-139.4538854204271</v>
+      </c>
+      <c r="D11" t="n">
+        <v>356.7804401487633</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>92</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-166.7982865604031</v>
+      </c>
+      <c r="D12" t="n">
+        <v>353.0263186302702</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>93</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-159.7260470160595</v>
+      </c>
+      <c r="D13" t="n">
+        <v>346.7000253631815</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>95</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-175.8968938248443</v>
+      </c>
+      <c r="D14" t="n">
+        <v>358.8891285774415</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>95</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-168.2934922354964</v>
+      </c>
+      <c r="D15" t="n">
+        <v>362.1327570208349</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>96</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-175.2687731924192</v>
+      </c>
+      <c r="D16" t="n">
+        <v>363.2057705576863</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>97</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-154.3878645965564</v>
+      </c>
+      <c r="D17" t="n">
+        <v>362.6623170482814</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-170.4791888923167</v>
+      </c>
+      <c r="D18" t="n">
+        <v>363.5253210577522</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>101</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-149.6482605123202</v>
+      </c>
+      <c r="D19" t="n">
+        <v>366.0479057115564</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>102</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-175.8867911444887</v>
+      </c>
+      <c r="D20" t="n">
+        <v>329.2661859849793</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>103</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-144.1059093322575</v>
+      </c>
+      <c r="D21" t="n">
+        <v>365.5295207208952</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>104</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-164.3705690489207</v>
+      </c>
+      <c r="D22" t="n">
+        <v>383.2211848098984</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>105</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-140.602223473324</v>
+      </c>
+      <c r="D23" t="n">
+        <v>370.6704785721655</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>106</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-140.3545032482949</v>
+      </c>
+      <c r="D24" t="n">
+        <v>359.7298082236087</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>106</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-157.5876007119241</v>
+      </c>
+      <c r="D25" t="n">
+        <v>387.3030316825586</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>107</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-165.5078330820832</v>
+      </c>
+      <c r="D26" t="n">
+        <v>382.0698332817145</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>110</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-151.2168265068043</v>
+      </c>
+      <c r="D27" t="n">
+        <v>376.6094559213005</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>111</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-149.1874063139441</v>
+      </c>
+      <c r="D28" t="n">
+        <v>373.0731827367729</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>112</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-146.6787102904629</v>
+      </c>
+      <c r="D29" t="n">
+        <v>345.0707999541996</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>118</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-146.5118834395173</v>
+      </c>
+      <c r="D30" t="n">
+        <v>362.7409827482956</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>120</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-116.9059121060404</v>
+      </c>
+      <c r="D31" t="n">
+        <v>383.1177306912695</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>121</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-165.528853383691</v>
+      </c>
+      <c r="D32" t="n">
+        <v>383.690658332517</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>123</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-161.7693485605801</v>
+      </c>
+      <c r="D33" t="n">
+        <v>382.2398819821188</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>124</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-131.5257189584611</v>
+      </c>
+      <c r="D34" t="n">
+        <v>386.9837508589515</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>132</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-131.4119837281218</v>
+      </c>
+      <c r="D35" t="n">
+        <v>396.4589823911274</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>133</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-149.0062380137816</v>
+      </c>
+      <c r="D36" t="n">
+        <v>409.2858632783738</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>134</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-137.306520032451</v>
+      </c>
+      <c r="D37" t="n">
+        <v>417.70006657069</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>136</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-124.7325210624856</v>
+      </c>
+      <c r="D38" t="n">
+        <v>393.3959782657089</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>137</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-128.7258627091911</v>
+      </c>
+      <c r="D39" t="n">
+        <v>402.5852463672857</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>138</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-124.5146810350561</v>
+      </c>
+      <c r="D40" t="n">
+        <v>406.7295798633868</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>139</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-131.7121303255668</v>
+      </c>
+      <c r="D41" t="n">
+        <v>412.0889324777673</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>140</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-112.6921477425219</v>
+      </c>
+      <c r="D42" t="n">
+        <v>412.2872216726652</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>150</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-106.7545104796367</v>
+      </c>
+      <c r="D43" t="n">
+        <v>406.5140582135217</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>152</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-111.6718871750757</v>
+      </c>
+      <c r="D44" t="n">
+        <v>405.0745600127524</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>153</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-92.95064839909371</v>
+      </c>
+      <c r="D45" t="n">
+        <v>414.5980312491081</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>155</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-96.69499504534147</v>
+      </c>
+      <c r="D46" t="n">
+        <v>419.3072427197307</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>156</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-120.0788071569056</v>
+      </c>
+      <c r="D47" t="n">
+        <v>410.3118103375381</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>156</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-99.781323007083</v>
+      </c>
+      <c r="D48" t="n">
+        <v>423.5786033373604</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>157</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-113.9572646392545</v>
+      </c>
+      <c r="D49" t="n">
+        <v>434.6301487583696</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>158</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-120.6954258350592</v>
+      </c>
+      <c r="D50" t="n">
+        <v>421.779502295145</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>159</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-115.0965167893619</v>
+      </c>
+      <c r="D51" t="n">
+        <v>434.9905151738202</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>160</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-100.2445879073675</v>
+      </c>
+      <c r="D52" t="n">
+        <v>419.9495101354744</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>161</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-82.09208038493128</v>
+      </c>
+      <c r="D53" t="n">
+        <v>437.6492403723318</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>161</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-103.2505762690654</v>
+      </c>
+      <c r="D54" t="n">
+        <v>427.6214964330471</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BSVYXM5C_po_data.xlsx
+++ b/po_analysis_by_asin/B0BSVYXM5C_po_data.xlsx
@@ -989,7 +989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1008,16 +1008,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1026,12 +1016,6 @@
       <c r="B2" t="n">
         <v>77</v>
       </c>
-      <c r="C2" t="n">
-        <v>-184.3636069839142</v>
-      </c>
-      <c r="D2" t="n">
-        <v>342.6444210233852</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1040,12 +1024,6 @@
       <c r="B3" t="n">
         <v>78</v>
       </c>
-      <c r="C3" t="n">
-        <v>-173.0471121862446</v>
-      </c>
-      <c r="D3" t="n">
-        <v>356.6460805123269</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1054,12 +1032,6 @@
       <c r="B4" t="n">
         <v>78</v>
       </c>
-      <c r="C4" t="n">
-        <v>-182.310516282795</v>
-      </c>
-      <c r="D4" t="n">
-        <v>344.4774907833351</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1068,12 +1040,6 @@
       <c r="B5" t="n">
         <v>79</v>
       </c>
-      <c r="C5" t="n">
-        <v>-182.9682518788344</v>
-      </c>
-      <c r="D5" t="n">
-        <v>347.3745869635646</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1082,12 +1048,6 @@
       <c r="B6" t="n">
         <v>80</v>
       </c>
-      <c r="C6" t="n">
-        <v>-186.9675077483778</v>
-      </c>
-      <c r="D6" t="n">
-        <v>362.9642351760211</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1096,12 +1056,6 @@
       <c r="B7" t="n">
         <v>81</v>
       </c>
-      <c r="C7" t="n">
-        <v>-206.4444393148276</v>
-      </c>
-      <c r="D7" t="n">
-        <v>327.7685831817484</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1110,12 +1064,6 @@
       <c r="B8" t="n">
         <v>82</v>
       </c>
-      <c r="C8" t="n">
-        <v>-167.0089361083433</v>
-      </c>
-      <c r="D8" t="n">
-        <v>339.4482485793996</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1124,12 +1072,6 @@
       <c r="B9" t="n">
         <v>84</v>
       </c>
-      <c r="C9" t="n">
-        <v>-177.8423623169037</v>
-      </c>
-      <c r="D9" t="n">
-        <v>337.2376318384395</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1138,12 +1080,6 @@
       <c r="B10" t="n">
         <v>85</v>
       </c>
-      <c r="C10" t="n">
-        <v>-182.1002863593034</v>
-      </c>
-      <c r="D10" t="n">
-        <v>354.4294344016369</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1152,12 +1088,6 @@
       <c r="B11" t="n">
         <v>91</v>
       </c>
-      <c r="C11" t="n">
-        <v>-139.4538854204271</v>
-      </c>
-      <c r="D11" t="n">
-        <v>356.7804401487633</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1166,12 +1096,6 @@
       <c r="B12" t="n">
         <v>92</v>
       </c>
-      <c r="C12" t="n">
-        <v>-166.7982865604031</v>
-      </c>
-      <c r="D12" t="n">
-        <v>353.0263186302702</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1180,12 +1104,6 @@
       <c r="B13" t="n">
         <v>93</v>
       </c>
-      <c r="C13" t="n">
-        <v>-159.7260470160595</v>
-      </c>
-      <c r="D13" t="n">
-        <v>346.7000253631815</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1194,12 +1112,6 @@
       <c r="B14" t="n">
         <v>95</v>
       </c>
-      <c r="C14" t="n">
-        <v>-175.8968938248443</v>
-      </c>
-      <c r="D14" t="n">
-        <v>358.8891285774415</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1208,12 +1120,6 @@
       <c r="B15" t="n">
         <v>95</v>
       </c>
-      <c r="C15" t="n">
-        <v>-168.2934922354964</v>
-      </c>
-      <c r="D15" t="n">
-        <v>362.1327570208349</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1222,12 +1128,6 @@
       <c r="B16" t="n">
         <v>96</v>
       </c>
-      <c r="C16" t="n">
-        <v>-175.2687731924192</v>
-      </c>
-      <c r="D16" t="n">
-        <v>363.2057705576863</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1236,12 +1136,6 @@
       <c r="B17" t="n">
         <v>97</v>
       </c>
-      <c r="C17" t="n">
-        <v>-154.3878645965564</v>
-      </c>
-      <c r="D17" t="n">
-        <v>362.6623170482814</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1250,12 +1144,6 @@
       <c r="B18" t="n">
         <v>100</v>
       </c>
-      <c r="C18" t="n">
-        <v>-170.4791888923167</v>
-      </c>
-      <c r="D18" t="n">
-        <v>363.5253210577522</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1264,12 +1152,6 @@
       <c r="B19" t="n">
         <v>101</v>
       </c>
-      <c r="C19" t="n">
-        <v>-149.6482605123202</v>
-      </c>
-      <c r="D19" t="n">
-        <v>366.0479057115564</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1278,12 +1160,6 @@
       <c r="B20" t="n">
         <v>102</v>
       </c>
-      <c r="C20" t="n">
-        <v>-175.8867911444887</v>
-      </c>
-      <c r="D20" t="n">
-        <v>329.2661859849793</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1292,12 +1168,6 @@
       <c r="B21" t="n">
         <v>103</v>
       </c>
-      <c r="C21" t="n">
-        <v>-144.1059093322575</v>
-      </c>
-      <c r="D21" t="n">
-        <v>365.5295207208952</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1306,12 +1176,6 @@
       <c r="B22" t="n">
         <v>104</v>
       </c>
-      <c r="C22" t="n">
-        <v>-164.3705690489207</v>
-      </c>
-      <c r="D22" t="n">
-        <v>383.2211848098984</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1320,12 +1184,6 @@
       <c r="B23" t="n">
         <v>105</v>
       </c>
-      <c r="C23" t="n">
-        <v>-140.602223473324</v>
-      </c>
-      <c r="D23" t="n">
-        <v>370.6704785721655</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1334,12 +1192,6 @@
       <c r="B24" t="n">
         <v>106</v>
       </c>
-      <c r="C24" t="n">
-        <v>-140.3545032482949</v>
-      </c>
-      <c r="D24" t="n">
-        <v>359.7298082236087</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1348,12 +1200,6 @@
       <c r="B25" t="n">
         <v>106</v>
       </c>
-      <c r="C25" t="n">
-        <v>-157.5876007119241</v>
-      </c>
-      <c r="D25" t="n">
-        <v>387.3030316825586</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1362,12 +1208,6 @@
       <c r="B26" t="n">
         <v>107</v>
       </c>
-      <c r="C26" t="n">
-        <v>-165.5078330820832</v>
-      </c>
-      <c r="D26" t="n">
-        <v>382.0698332817145</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1376,12 +1216,6 @@
       <c r="B27" t="n">
         <v>110</v>
       </c>
-      <c r="C27" t="n">
-        <v>-151.2168265068043</v>
-      </c>
-      <c r="D27" t="n">
-        <v>376.6094559213005</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1390,12 +1224,6 @@
       <c r="B28" t="n">
         <v>111</v>
       </c>
-      <c r="C28" t="n">
-        <v>-149.1874063139441</v>
-      </c>
-      <c r="D28" t="n">
-        <v>373.0731827367729</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1404,12 +1232,6 @@
       <c r="B29" t="n">
         <v>112</v>
       </c>
-      <c r="C29" t="n">
-        <v>-146.6787102904629</v>
-      </c>
-      <c r="D29" t="n">
-        <v>345.0707999541996</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1418,12 +1240,6 @@
       <c r="B30" t="n">
         <v>118</v>
       </c>
-      <c r="C30" t="n">
-        <v>-146.5118834395173</v>
-      </c>
-      <c r="D30" t="n">
-        <v>362.7409827482956</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1432,12 +1248,6 @@
       <c r="B31" t="n">
         <v>120</v>
       </c>
-      <c r="C31" t="n">
-        <v>-116.9059121060404</v>
-      </c>
-      <c r="D31" t="n">
-        <v>383.1177306912695</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1446,12 +1256,6 @@
       <c r="B32" t="n">
         <v>121</v>
       </c>
-      <c r="C32" t="n">
-        <v>-165.528853383691</v>
-      </c>
-      <c r="D32" t="n">
-        <v>383.690658332517</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1460,12 +1264,6 @@
       <c r="B33" t="n">
         <v>123</v>
       </c>
-      <c r="C33" t="n">
-        <v>-161.7693485605801</v>
-      </c>
-      <c r="D33" t="n">
-        <v>382.2398819821188</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1474,12 +1272,6 @@
       <c r="B34" t="n">
         <v>124</v>
       </c>
-      <c r="C34" t="n">
-        <v>-131.5257189584611</v>
-      </c>
-      <c r="D34" t="n">
-        <v>386.9837508589515</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1488,12 +1280,6 @@
       <c r="B35" t="n">
         <v>132</v>
       </c>
-      <c r="C35" t="n">
-        <v>-131.4119837281218</v>
-      </c>
-      <c r="D35" t="n">
-        <v>396.4589823911274</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1502,12 +1288,6 @@
       <c r="B36" t="n">
         <v>133</v>
       </c>
-      <c r="C36" t="n">
-        <v>-149.0062380137816</v>
-      </c>
-      <c r="D36" t="n">
-        <v>409.2858632783738</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1516,12 +1296,6 @@
       <c r="B37" t="n">
         <v>134</v>
       </c>
-      <c r="C37" t="n">
-        <v>-137.306520032451</v>
-      </c>
-      <c r="D37" t="n">
-        <v>417.70006657069</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1530,12 +1304,6 @@
       <c r="B38" t="n">
         <v>136</v>
       </c>
-      <c r="C38" t="n">
-        <v>-124.7325210624856</v>
-      </c>
-      <c r="D38" t="n">
-        <v>393.3959782657089</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1544,12 +1312,6 @@
       <c r="B39" t="n">
         <v>137</v>
       </c>
-      <c r="C39" t="n">
-        <v>-128.7258627091911</v>
-      </c>
-      <c r="D39" t="n">
-        <v>402.5852463672857</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1558,12 +1320,6 @@
       <c r="B40" t="n">
         <v>138</v>
       </c>
-      <c r="C40" t="n">
-        <v>-124.5146810350561</v>
-      </c>
-      <c r="D40" t="n">
-        <v>406.7295798633868</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1572,12 +1328,6 @@
       <c r="B41" t="n">
         <v>139</v>
       </c>
-      <c r="C41" t="n">
-        <v>-131.7121303255668</v>
-      </c>
-      <c r="D41" t="n">
-        <v>412.0889324777673</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1586,12 +1336,6 @@
       <c r="B42" t="n">
         <v>140</v>
       </c>
-      <c r="C42" t="n">
-        <v>-112.6921477425219</v>
-      </c>
-      <c r="D42" t="n">
-        <v>412.2872216726652</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1600,12 +1344,6 @@
       <c r="B43" t="n">
         <v>150</v>
       </c>
-      <c r="C43" t="n">
-        <v>-106.7545104796367</v>
-      </c>
-      <c r="D43" t="n">
-        <v>406.5140582135217</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1614,12 +1352,6 @@
       <c r="B44" t="n">
         <v>152</v>
       </c>
-      <c r="C44" t="n">
-        <v>-111.6718871750757</v>
-      </c>
-      <c r="D44" t="n">
-        <v>405.0745600127524</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1628,12 +1360,6 @@
       <c r="B45" t="n">
         <v>153</v>
       </c>
-      <c r="C45" t="n">
-        <v>-92.95064839909371</v>
-      </c>
-      <c r="D45" t="n">
-        <v>414.5980312491081</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1642,12 +1368,6 @@
       <c r="B46" t="n">
         <v>155</v>
       </c>
-      <c r="C46" t="n">
-        <v>-96.69499504534147</v>
-      </c>
-      <c r="D46" t="n">
-        <v>419.3072427197307</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1656,12 +1376,6 @@
       <c r="B47" t="n">
         <v>156</v>
       </c>
-      <c r="C47" t="n">
-        <v>-120.0788071569056</v>
-      </c>
-      <c r="D47" t="n">
-        <v>410.3118103375381</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1670,12 +1384,6 @@
       <c r="B48" t="n">
         <v>156</v>
       </c>
-      <c r="C48" t="n">
-        <v>-99.781323007083</v>
-      </c>
-      <c r="D48" t="n">
-        <v>423.5786033373604</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1684,12 +1392,6 @@
       <c r="B49" t="n">
         <v>157</v>
       </c>
-      <c r="C49" t="n">
-        <v>-113.9572646392545</v>
-      </c>
-      <c r="D49" t="n">
-        <v>434.6301487583696</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1698,12 +1400,6 @@
       <c r="B50" t="n">
         <v>158</v>
       </c>
-      <c r="C50" t="n">
-        <v>-120.6954258350592</v>
-      </c>
-      <c r="D50" t="n">
-        <v>421.779502295145</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1712,12 +1408,6 @@
       <c r="B51" t="n">
         <v>159</v>
       </c>
-      <c r="C51" t="n">
-        <v>-115.0965167893619</v>
-      </c>
-      <c r="D51" t="n">
-        <v>434.9905151738202</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1726,12 +1416,6 @@
       <c r="B52" t="n">
         <v>160</v>
       </c>
-      <c r="C52" t="n">
-        <v>-100.2445879073675</v>
-      </c>
-      <c r="D52" t="n">
-        <v>419.9495101354744</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1740,12 +1424,6 @@
       <c r="B53" t="n">
         <v>161</v>
       </c>
-      <c r="C53" t="n">
-        <v>-82.09208038493128</v>
-      </c>
-      <c r="D53" t="n">
-        <v>437.6492403723318</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1753,12 +1431,6 @@
       </c>
       <c r="B54" t="n">
         <v>161</v>
-      </c>
-      <c r="C54" t="n">
-        <v>-103.2505762690654</v>
-      </c>
-      <c r="D54" t="n">
-        <v>427.6214964330471</v>
       </c>
     </row>
   </sheetData>
